--- a/Py/SummaryReport.xlsx
+++ b/Py/SummaryReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AD_Shot\Lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AD_Shot\Py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E87A77-AE65-4BA5-8F62-D99BC1996D10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCAF422-065D-4BF9-BC27-58E5EB385160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="705" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -702,24 +702,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -745,6 +727,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
@@ -3620,18 +3620,18 @@
       </c>
     </row>
     <row r="2" spans="2:37">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="50">
         <f>SUM(G2:AK2)</f>
         <v>376320</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="59">
         <f>SUM(G4:AK4)</f>
         <v>163968</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="62">
         <f>IF(D2/C2&gt;1,1,D2/C2)</f>
         <v>0.43571428571428572</v>
       </c>
@@ -3705,10 +3705,10 @@
       <c r="AK2" s="37"/>
     </row>
     <row r="3" spans="2:37">
-      <c r="B3" s="60"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="25" t="s">
         <v>1</v>
       </c>
@@ -3838,10 +3838,10 @@
       </c>
     </row>
     <row r="4" spans="2:37">
-      <c r="B4" s="60"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="25" t="s">
         <v>2</v>
       </c>
@@ -3900,10 +3900,10 @@
       <c r="AK4" s="38"/>
     </row>
     <row r="5" spans="2:37">
-      <c r="B5" s="60"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="25" t="s">
         <v>3</v>
       </c>
@@ -4033,152 +4033,152 @@
       </c>
     </row>
     <row r="6" spans="2:37">
-      <c r="B6" s="61"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="28">
-        <f>IF(G5&gt;$C$2,1,G5/$C$2)</f>
+        <f t="shared" ref="G6:AJ6" si="4">IF(G5&gt;$C$2,1,G5/$C$2)</f>
         <v>0</v>
       </c>
       <c r="H6" s="28">
-        <f>IF(H5&gt;$C$2,1,H5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I6" s="28">
-        <f>IF(I5&gt;$C$2,1,I5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J6" s="28">
-        <f>IF(J5&gt;$C$2,1,J5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="28">
-        <f>IF(K5&gt;$C$2,1,K5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.10892857142857143</v>
       </c>
       <c r="L6" s="28">
-        <f>IF(L5&gt;$C$2,1,L5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.10892857142857143</v>
       </c>
       <c r="M6" s="28">
-        <f>IF(M5&gt;$C$2,1,M5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.21785714285714286</v>
       </c>
       <c r="N6" s="28">
-        <f>IF(N5&gt;$C$2,1,N5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.32678571428571429</v>
       </c>
       <c r="O6" s="44">
-        <f>IF(O5&gt;$C$2,1,O5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="P6" s="28">
-        <f>IF(P5&gt;$C$2,1,P5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="Q6" s="28">
-        <f>IF(Q5&gt;$C$2,1,Q5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="R6" s="28">
-        <f>IF(R5&gt;$C$2,1,R5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="S6" s="28">
-        <f>IF(S5&gt;$C$2,1,S5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="T6" s="28">
-        <f>IF(T5&gt;$C$2,1,T5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="U6" s="28">
-        <f>IF(U5&gt;$C$2,1,U5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="V6" s="28">
-        <f>IF(V5&gt;$C$2,1,V5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="W6" s="28">
-        <f>IF(W5&gt;$C$2,1,W5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="X6" s="28">
-        <f>IF(X5&gt;$C$2,1,X5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="Y6" s="28">
-        <f>IF(Y5&gt;$C$2,1,Y5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="Z6" s="28">
-        <f>IF(Z5&gt;$C$2,1,Z5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AA6" s="28">
-        <f>IF(AA5&gt;$C$2,1,AA5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AB6" s="28">
-        <f>IF(AB5&gt;$C$2,1,AB5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AC6" s="28">
-        <f>IF(AC5&gt;$C$2,1,AC5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AD6" s="28">
-        <f>IF(AD5&gt;$C$2,1,AD5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AE6" s="28">
-        <f>IF(AE5&gt;$C$2,1,AE5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AF6" s="28">
-        <f>IF(AF5&gt;$C$2,1,AF5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AG6" s="28">
-        <f>IF(AG5&gt;$C$2,1,AG5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AH6" s="28">
-        <f>IF(AH5&gt;$C$2,1,AH5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AI6" s="28">
-        <f>IF(AI5&gt;$C$2,1,AI5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AJ6" s="28">
-        <f>IF(AJ5&gt;$C$2,1,AJ5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AK6" s="28">
-        <f t="shared" ref="AK6" si="4">IF(AK5&gt;$C$2,1,AK5/$C$2)</f>
+        <f t="shared" ref="AK6" si="5">IF(AK5&gt;$C$2,1,AK5/$C$2)</f>
         <v>0.43571428571428572</v>
       </c>
     </row>
     <row r="7" spans="2:37">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="50">
         <f>SUM(G7:AJ7)</f>
         <v>172800</v>
       </c>
-      <c r="D7" s="50">
-        <f t="shared" ref="D7" si="5">SUM(G9:AK9)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="53">
-        <f t="shared" ref="E7" si="6">IF(D7/C7&gt;1,1,D7/C7)</f>
+      <c r="D7" s="59">
+        <f t="shared" ref="D7" si="6">SUM(G9:AK9)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="62">
+        <f t="shared" ref="E7" si="7">IF(D7/C7&gt;1,1,D7/C7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="24" t="s">
@@ -4249,10 +4249,10 @@
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="2:37">
-      <c r="B8" s="60"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="25" t="s">
         <v>1</v>
       </c>
@@ -4277,15 +4277,15 @@
         <v>0</v>
       </c>
       <c r="L8" s="38">
-        <f t="shared" ref="L8:AK8" si="7">K8+L7</f>
+        <f t="shared" ref="L8:AK8" si="8">K8+L7</f>
         <v>0</v>
       </c>
       <c r="M8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O8" s="43">
@@ -4293,99 +4293,99 @@
         <v>0</v>
       </c>
       <c r="P8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28800</v>
       </c>
       <c r="R8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28800</v>
       </c>
       <c r="S8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28800</v>
       </c>
       <c r="T8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57600</v>
       </c>
       <c r="U8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>86400</v>
       </c>
       <c r="V8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="W8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="X8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="Y8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="Z8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AA8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AB8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AC8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AD8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AE8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AF8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AG8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AH8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>144000</v>
       </c>
       <c r="AI8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>172800</v>
       </c>
       <c r="AJ8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>172800</v>
       </c>
       <c r="AK8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>172800</v>
       </c>
     </row>
     <row r="9" spans="2:37">
-      <c r="B9" s="60"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="25" t="s">
         <v>2</v>
       </c>
@@ -4442,10 +4442,10 @@
       <c r="AK9" s="38"/>
     </row>
     <row r="10" spans="2:37">
-      <c r="B10" s="60"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="25" t="s">
         <v>3</v>
       </c>
@@ -4458,19 +4458,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="38">
-        <f t="shared" ref="I10:L10" si="8">H10+I9</f>
+        <f t="shared" ref="I10:L10" si="9">H10+I9</f>
         <v>0</v>
       </c>
       <c r="J10" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K10" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L10" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M10" s="38">
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="38">
-        <f t="shared" ref="N10" si="9">M10+N9</f>
+        <f t="shared" ref="N10" si="10">M10+N9</f>
         <v>0</v>
       </c>
       <c r="O10" s="43">
@@ -4486,99 +4486,99 @@
         <v>0</v>
       </c>
       <c r="P10" s="38">
-        <f t="shared" ref="P10:AK10" si="10">O10+P9</f>
+        <f t="shared" ref="P10:AK10" si="11">O10+P9</f>
         <v>0</v>
       </c>
       <c r="Q10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:37">
-      <c r="B11" s="61"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="26" t="s">
         <v>4</v>
       </c>
@@ -4587,140 +4587,140 @@
         <v>0</v>
       </c>
       <c r="H11" s="28">
-        <f t="shared" ref="H11:AJ11" si="11">IF(H10&gt;$C$7,1,H10/$C$7)</f>
+        <f t="shared" ref="H11:AJ11" si="12">IF(H10&gt;$C$7,1,H10/$C$7)</f>
         <v>0</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O11" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK11" s="28">
-        <f t="shared" ref="AK11" si="12">IF(AK10&gt;$C$7,1,AK10/$C$7)</f>
+        <f t="shared" ref="AK11" si="13">IF(AK10&gt;$C$7,1,AK10/$C$7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:37">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="50">
         <f>SUM(G12:AJ12)</f>
         <v>241920</v>
       </c>
-      <c r="D12" s="50">
-        <f t="shared" ref="D12" si="13">SUM(G14:AK14)</f>
-        <v>241920</v>
-      </c>
-      <c r="E12" s="53">
-        <f t="shared" ref="E12" si="14">IF(D12/C12&gt;1,1,D12/C12)</f>
+      <c r="D12" s="59">
+        <f t="shared" ref="D12" si="14">SUM(G14:AK14)</f>
+        <v>241920</v>
+      </c>
+      <c r="E12" s="62">
+        <f t="shared" ref="E12" si="15">IF(D12/C12&gt;1,1,D12/C12)</f>
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
@@ -4821,10 +4821,10 @@
       </c>
     </row>
     <row r="13" spans="2:37">
-      <c r="B13" s="60"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="25" t="s">
         <v>1</v>
       </c>
@@ -4837,27 +4837,27 @@
         <v>120960</v>
       </c>
       <c r="I13" s="38">
-        <f t="shared" ref="I13:N13" si="15">H13+I12</f>
+        <f t="shared" ref="I13:N13" si="16">H13+I12</f>
         <v>181440</v>
       </c>
       <c r="J13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>181440</v>
       </c>
       <c r="K13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>181440</v>
       </c>
       <c r="L13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="M13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="N13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="O13" s="43">
@@ -4865,99 +4865,99 @@
         <v>241920</v>
       </c>
       <c r="P13" s="38">
-        <f t="shared" ref="P13:AK13" si="16">O13+P12</f>
+        <f t="shared" ref="P13:AK13" si="17">O13+P12</f>
         <v>241920</v>
       </c>
       <c r="Q13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="R13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="S13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="T13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="U13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="V13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="W13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="X13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="Y13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="Z13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AA13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AB13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AC13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AD13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AE13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AF13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AG13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AH13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AI13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AJ13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="AK13" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
     </row>
     <row r="14" spans="2:37">
-      <c r="B14" s="60"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="25" t="s">
         <v>2</v>
       </c>
@@ -5006,10 +5006,10 @@
       <c r="AK14" s="38"/>
     </row>
     <row r="15" spans="2:37">
-      <c r="B15" s="60"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="25" t="s">
         <v>3</v>
       </c>
@@ -5022,27 +5022,27 @@
         <v>120960</v>
       </c>
       <c r="I15" s="38">
-        <f t="shared" ref="I15:N15" si="17">H15+I14</f>
+        <f t="shared" ref="I15:N15" si="18">H15+I14</f>
         <v>181440</v>
       </c>
       <c r="J15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>181440</v>
       </c>
       <c r="K15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>181440</v>
       </c>
       <c r="L15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="M15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="N15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="O15" s="43">
@@ -5050,99 +5050,99 @@
         <v>241920</v>
       </c>
       <c r="P15" s="38">
-        <f t="shared" ref="P15:AK15" si="18">O15+P14</f>
+        <f t="shared" ref="P15:AK15" si="19">O15+P14</f>
         <v>241920</v>
       </c>
       <c r="Q15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="R15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="S15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="T15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="U15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="V15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="W15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="X15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="Y15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="Z15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AA15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AB15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AC15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AD15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AE15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AF15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AG15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AH15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AI15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AJ15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
       <c r="AK15" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>241920</v>
       </c>
     </row>
     <row r="16" spans="2:37">
-      <c r="B16" s="61"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
       </c>
@@ -5151,11 +5151,11 @@
         <v>0.25</v>
       </c>
       <c r="H16" s="28">
-        <f t="shared" ref="H16:AJ16" si="19">IF(H15&gt;$C$12,1,H15/$C$12)</f>
+        <f t="shared" ref="H16:AJ16" si="20">IF(H15&gt;$C$12,1,H15/$C$12)</f>
         <v>0.5</v>
       </c>
       <c r="I16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.75</v>
       </c>
       <c r="J16" s="28">
@@ -5163,128 +5163,128 @@
         <v>0.75</v>
       </c>
       <c r="K16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.75</v>
       </c>
       <c r="L16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="N16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O16" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Q16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="R16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="T16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="U16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="V16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="W16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="X16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Y16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Z16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AA16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AB16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AC16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AD16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AE16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AF16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AG16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AH16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AI16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AJ16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AK16" s="28">
-        <f t="shared" ref="AK16" si="20">IF(AK15&gt;$C$12,1,AK15/$C$12)</f>
+        <f t="shared" ref="AK16" si="21">IF(AK15&gt;$C$12,1,AK15/$C$12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:37">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="50">
         <f>SUM(G17:AJ17)</f>
         <v>241920</v>
       </c>
-      <c r="D17" s="50">
-        <f t="shared" ref="D17" si="21">SUM(G19:AK19)</f>
+      <c r="D17" s="59">
+        <f t="shared" ref="D17" si="22">SUM(G19:AK19)</f>
         <v>60480</v>
       </c>
-      <c r="E17" s="53">
-        <f t="shared" ref="E17" si="22">IF(D17/C17&gt;1,1,D17/C17)</f>
+      <c r="E17" s="62">
+        <f t="shared" ref="E17" si="23">IF(D17/C17&gt;1,1,D17/C17)</f>
         <v>0.25</v>
       </c>
       <c r="F17" s="24" t="s">
@@ -5355,10 +5355,10 @@
       <c r="AK17" s="37"/>
     </row>
     <row r="18" spans="2:37">
-      <c r="B18" s="60"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="25" t="s">
         <v>1</v>
       </c>
@@ -5371,27 +5371,27 @@
         <v>0</v>
       </c>
       <c r="I18" s="38">
-        <f t="shared" ref="I18:AK18" si="23">H18+I17</f>
+        <f t="shared" ref="I18:AK18" si="24">H18+I17</f>
         <v>0</v>
       </c>
       <c r="J18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>20160</v>
       </c>
       <c r="N18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>40320</v>
       </c>
       <c r="O18" s="43">
@@ -5399,99 +5399,99 @@
         <v>60480</v>
       </c>
       <c r="P18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>60480</v>
       </c>
       <c r="Q18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>60480</v>
       </c>
       <c r="R18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>120960</v>
       </c>
       <c r="S18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>141120</v>
       </c>
       <c r="T18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>161280</v>
       </c>
       <c r="U18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>181440</v>
       </c>
       <c r="V18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>181440</v>
       </c>
       <c r="W18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>181440</v>
       </c>
       <c r="X18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>181440</v>
       </c>
       <c r="Y18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>181440</v>
       </c>
       <c r="Z18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>181440</v>
       </c>
       <c r="AA18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>181440</v>
       </c>
       <c r="AB18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241920</v>
       </c>
       <c r="AC18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241920</v>
       </c>
       <c r="AD18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241920</v>
       </c>
       <c r="AE18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241920</v>
       </c>
       <c r="AF18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241920</v>
       </c>
       <c r="AG18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241920</v>
       </c>
       <c r="AH18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241920</v>
       </c>
       <c r="AI18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241920</v>
       </c>
       <c r="AJ18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241920</v>
       </c>
       <c r="AK18" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>241920</v>
       </c>
     </row>
     <row r="19" spans="2:37">
-      <c r="B19" s="60"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="25" t="s">
         <v>2</v>
       </c>
@@ -5550,10 +5550,10 @@
       <c r="AK19" s="38"/>
     </row>
     <row r="20" spans="2:37">
-      <c r="B20" s="60"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="25" t="s">
         <v>3</v>
       </c>
@@ -5566,27 +5566,27 @@
         <v>0</v>
       </c>
       <c r="I20" s="38">
-        <f t="shared" ref="I20:AK20" si="24">H20+I19</f>
+        <f t="shared" ref="I20:AK20" si="25">H20+I19</f>
         <v>0</v>
       </c>
       <c r="J20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>20160</v>
       </c>
       <c r="N20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>40320</v>
       </c>
       <c r="O20" s="43">
@@ -5594,99 +5594,99 @@
         <v>60480</v>
       </c>
       <c r="P20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="Q20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="R20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="S20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="T20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="U20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="V20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="W20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="X20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="Y20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="Z20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AA20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AB20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AC20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AD20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AE20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AF20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AG20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AH20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AI20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AJ20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
       <c r="AK20" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60480</v>
       </c>
     </row>
     <row r="21" spans="2:37">
-      <c r="B21" s="61"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
       </c>
@@ -5695,140 +5695,140 @@
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" ref="H21:AJ21" si="25">IF(H20&gt;$C$17,1,H20/$C$17)</f>
+        <f t="shared" ref="H21:AJ21" si="26">IF(H20&gt;$C$17,1,H20/$C$17)</f>
         <v>0</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O21" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="Q21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="R21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="S21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="T21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="U21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="V21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="W21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="X21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="Y21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="Z21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AA21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AB21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AC21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AD21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AE21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AF21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AG21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AH21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AI21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AJ21" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AK21" s="28">
-        <f t="shared" ref="AK21" si="26">IF(AK20&gt;$C$17,1,AK20/$C$17)</f>
+        <f t="shared" ref="AK21" si="27">IF(AK20&gt;$C$17,1,AK20/$C$17)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="2:37">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="50">
         <f>SUM(G22:AJ22)</f>
         <v>107520</v>
       </c>
-      <c r="D22" s="50">
-        <f t="shared" ref="D22" si="27">SUM(G24:AK24)</f>
+      <c r="D22" s="59">
+        <f t="shared" ref="D22" si="28">SUM(G24:AK24)</f>
         <v>107520</v>
       </c>
-      <c r="E22" s="53">
-        <f t="shared" ref="E22" si="28">IF(D22/C22&gt;1,1,D22/C22)</f>
+      <c r="E22" s="62">
+        <f t="shared" ref="E22" si="29">IF(D22/C22&gt;1,1,D22/C22)</f>
         <v>1</v>
       </c>
       <c r="F22" s="24" t="s">
@@ -5929,10 +5929,10 @@
       </c>
     </row>
     <row r="23" spans="2:37">
-      <c r="B23" s="60"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="25" t="s">
         <v>1</v>
       </c>
@@ -5945,27 +5945,27 @@
         <v>53760</v>
       </c>
       <c r="I23" s="38">
-        <f t="shared" ref="I23:N23" si="29">H23+I22</f>
+        <f t="shared" ref="I23:N23" si="30">H23+I22</f>
         <v>80640</v>
       </c>
       <c r="J23" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>80640</v>
       </c>
       <c r="K23" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="L23" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="M23" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="N23" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="O23" s="43">
@@ -5973,99 +5973,99 @@
         <v>107520</v>
       </c>
       <c r="P23" s="38">
-        <f t="shared" ref="P23:AK23" si="30">O23+P22</f>
+        <f t="shared" ref="P23:AK23" si="31">O23+P22</f>
         <v>107520</v>
       </c>
       <c r="Q23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="R23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="S23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="T23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="U23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="V23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="W23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="X23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="Y23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="Z23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AA23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AB23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AC23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AD23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AE23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AF23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AG23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AH23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AI23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AJ23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
       <c r="AK23" s="38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>107520</v>
       </c>
     </row>
     <row r="24" spans="2:37">
-      <c r="B24" s="60"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="25" t="s">
         <v>2</v>
       </c>
@@ -6164,10 +6164,10 @@
       </c>
     </row>
     <row r="25" spans="2:37">
-      <c r="B25" s="60"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="25" t="s">
         <v>3</v>
       </c>
@@ -6180,27 +6180,27 @@
         <v>53760</v>
       </c>
       <c r="I25" s="38">
-        <f t="shared" ref="I25:N25" si="31">H25+I24</f>
+        <f t="shared" ref="I25:N25" si="32">H25+I24</f>
         <v>80640</v>
       </c>
       <c r="J25" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>80640</v>
       </c>
       <c r="K25" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>107520</v>
       </c>
       <c r="L25" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>107520</v>
       </c>
       <c r="M25" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>107520</v>
       </c>
       <c r="N25" s="38">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>107520</v>
       </c>
       <c r="O25" s="43">
@@ -6208,99 +6208,99 @@
         <v>107520</v>
       </c>
       <c r="P25" s="38">
-        <f t="shared" ref="P25:AK25" si="32">O25+P24</f>
+        <f t="shared" ref="P25:AK25" si="33">O25+P24</f>
         <v>107520</v>
       </c>
       <c r="Q25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="R25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="S25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="T25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="U25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="V25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="W25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="X25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="Y25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="Z25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AA25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AB25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AC25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AD25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AE25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AF25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AG25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AH25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AI25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AJ25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
       <c r="AK25" s="38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>107520</v>
       </c>
     </row>
     <row r="26" spans="2:37">
-      <c r="B26" s="61"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="26" t="s">
         <v>4</v>
       </c>
@@ -6309,140 +6309,140 @@
         <v>0.25</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" ref="H26:AJ26" si="33">IF(H25&gt;$C$22,1,H25/$C$22)</f>
+        <f t="shared" ref="H26:AJ26" si="34">IF(H25&gt;$C$22,1,H25/$C$22)</f>
         <v>0.5</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.75</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.75</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="L26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="M26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="N26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="O26" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Q26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="R26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="S26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="U26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="V26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="W26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="X26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Y26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Z26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AA26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AB26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AC26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AD26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AE26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AF26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AG26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AH26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AI26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AJ26" s="28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AK26" s="28">
-        <f t="shared" ref="AK26" si="34">IF(AK25&gt;$C$22,1,AK25/$C$22)</f>
+        <f t="shared" ref="AK26" si="35">IF(AK25&gt;$C$22,1,AK25/$C$22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:37">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="59">
         <f>SUM(C2:C26)</f>
         <v>1140480</v>
       </c>
-      <c r="D27" s="50">
-        <f t="shared" ref="D27" si="35">SUM(G29:AK29)</f>
+      <c r="D27" s="59">
+        <f t="shared" ref="D27" si="36">SUM(G29:AK29)</f>
         <v>573888</v>
       </c>
-      <c r="E27" s="53">
-        <f t="shared" ref="E27" si="36">IF(D27/C27&gt;1,1,D27/C27)</f>
+      <c r="E27" s="62">
+        <f t="shared" ref="E27" si="37">IF(D27/C27&gt;1,1,D27/C27)</f>
         <v>0.5031986531986532</v>
       </c>
       <c r="F27" s="24" t="s">
@@ -6453,264 +6453,264 @@
         <v>87360</v>
       </c>
       <c r="H27" s="37">
-        <f t="shared" ref="H27:AJ30" si="37">SUM(H2+H7+H12+H17+H22)</f>
+        <f t="shared" ref="H27:AJ30" si="38">SUM(H2+H7+H12+H17+H22)</f>
         <v>87360</v>
       </c>
       <c r="I27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>87360</v>
       </c>
       <c r="J27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>67200</v>
       </c>
       <c r="L27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>60480</v>
       </c>
       <c r="M27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>60480</v>
       </c>
       <c r="N27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>60480</v>
       </c>
       <c r="O27" s="42">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>60480</v>
       </c>
       <c r="P27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>28800</v>
       </c>
       <c r="R27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>60480</v>
       </c>
       <c r="S27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>20160</v>
       </c>
       <c r="T27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>48960</v>
       </c>
       <c r="U27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>48960</v>
       </c>
       <c r="V27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>28800</v>
       </c>
       <c r="W27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13440</v>
       </c>
       <c r="X27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40320</v>
       </c>
       <c r="Y27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Z27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40320</v>
       </c>
       <c r="AB27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>60480</v>
       </c>
       <c r="AC27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40320</v>
       </c>
       <c r="AD27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40320</v>
       </c>
       <c r="AE27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>40320</v>
       </c>
       <c r="AF27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AG27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AH27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>28800</v>
       </c>
       <c r="AI27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>28800</v>
       </c>
       <c r="AJ27" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK27" s="37">
-        <f t="shared" ref="AK27" si="38">SUM(AK2+AK7+AK12+AK17+AK22)</f>
+        <f t="shared" ref="AK27" si="39">SUM(AK2+AK7+AK12+AK17+AK22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:37">
-      <c r="B28" s="63"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="54"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="38">
-        <f t="shared" ref="G28:V30" si="39">SUM(G3+G8+G13+G18+G23)</f>
+        <f t="shared" ref="G28:V28" si="40">SUM(G3+G8+G13+G18+G23)</f>
         <v>87360</v>
       </c>
       <c r="H28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>174720</v>
       </c>
       <c r="I28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>262080</v>
       </c>
       <c r="J28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>262080</v>
       </c>
       <c r="K28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>329280</v>
       </c>
       <c r="L28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>389760</v>
       </c>
       <c r="M28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>450240</v>
       </c>
       <c r="N28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>510720</v>
       </c>
       <c r="O28" s="43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>571200</v>
       </c>
       <c r="P28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>571200</v>
       </c>
       <c r="Q28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>600000</v>
       </c>
       <c r="R28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>660480</v>
       </c>
       <c r="S28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>680640</v>
       </c>
       <c r="T28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>729600</v>
       </c>
       <c r="U28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>778560</v>
       </c>
       <c r="V28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>807360</v>
       </c>
       <c r="W28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>820800</v>
       </c>
       <c r="X28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>861120</v>
       </c>
       <c r="Y28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>861120</v>
       </c>
       <c r="Z28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>861120</v>
       </c>
       <c r="AA28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>901440</v>
       </c>
       <c r="AB28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>961920</v>
       </c>
       <c r="AC28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1002240</v>
       </c>
       <c r="AD28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1042560</v>
       </c>
       <c r="AE28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1082880</v>
       </c>
       <c r="AF28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1082880</v>
       </c>
       <c r="AG28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1082880</v>
       </c>
       <c r="AH28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1111680</v>
       </c>
       <c r="AI28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1140480</v>
       </c>
       <c r="AJ28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1140480</v>
       </c>
       <c r="AK28" s="38">
-        <f t="shared" ref="AK28" si="40">SUM(AK3+AK8+AK13+AK18+AK23)</f>
+        <f t="shared" ref="AK28" si="41">SUM(AK3+AK8+AK13+AK18+AK23)</f>
         <v>1140480</v>
       </c>
     </row>
     <row r="29" spans="2:37">
-      <c r="B29" s="63"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="54"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="25" t="s">
         <v>2</v>
       </c>
@@ -6719,131 +6719,131 @@
         <v>87360</v>
       </c>
       <c r="H29" s="38">
-        <f t="shared" ref="H29:AJ29" si="41">H4+H9+H14+H19+H24</f>
+        <f t="shared" ref="H29:AJ29" si="42">H4+H9+H14+H19+H24</f>
         <v>87360</v>
       </c>
       <c r="I29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>87360</v>
       </c>
       <c r="J29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>67872</v>
       </c>
       <c r="L29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>60480</v>
       </c>
       <c r="M29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>61152</v>
       </c>
       <c r="N29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>61152</v>
       </c>
       <c r="O29" s="43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>61152</v>
       </c>
       <c r="P29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="T29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="U29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="W29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="X29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Y29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AB29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AC29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AE29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AF29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AG29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AH29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AI29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="38">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AK29" s="38">
-        <f t="shared" ref="AK29" si="42">AK4+AK9+AK14+AK19+AK24</f>
+        <f t="shared" ref="AK29" si="43">AK4+AK9+AK14+AK19+AK24</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:37">
-      <c r="B30" s="63"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="54"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="25" t="s">
         <v>3</v>
       </c>
@@ -6852,47 +6852,47 @@
         <v>87360</v>
       </c>
       <c r="H30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>174720</v>
       </c>
       <c r="I30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>262080</v>
       </c>
       <c r="J30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>262080</v>
       </c>
       <c r="K30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>329952</v>
       </c>
       <c r="L30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>390432</v>
       </c>
       <c r="M30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>451584</v>
       </c>
       <c r="N30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>512736</v>
       </c>
       <c r="O30" s="43">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="P30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="Q30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="R30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="S30" s="38">
@@ -6900,83 +6900,83 @@
         <v>573888</v>
       </c>
       <c r="T30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="U30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="V30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="W30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="X30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="Y30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="Z30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AA30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AB30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AC30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AD30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AE30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AF30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AG30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AH30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AI30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AJ30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>573888</v>
       </c>
       <c r="AK30" s="38">
-        <f t="shared" ref="AK30" si="43">SUM(AK5+AK10+AK15+AK20+AK25)</f>
+        <f t="shared" ref="AK30" si="44">SUM(AK5+AK10+AK15+AK20+AK25)</f>
         <v>573888</v>
       </c>
     </row>
     <row r="31" spans="2:37" ht="14.25" thickBot="1">
-      <c r="B31" s="63"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="54"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="27" t="s">
         <v>4</v>
       </c>
@@ -6985,43 +6985,43 @@
         <v>7.6599326599326598E-2</v>
       </c>
       <c r="H31" s="29">
-        <f t="shared" ref="H31:AJ31" si="44">IF(H30&gt;$C$27,1,H30/$C$27)</f>
+        <f t="shared" ref="H31:AJ31" si="45">IF(H30&gt;$C$27,1,H30/$C$27)</f>
         <v>0.1531986531986532</v>
       </c>
       <c r="I31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.22979797979797981</v>
       </c>
       <c r="J31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.22979797979797981</v>
       </c>
       <c r="K31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.28930976430976429</v>
       </c>
       <c r="L31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.34234006734006733</v>
       </c>
       <c r="M31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.39595959595959596</v>
       </c>
       <c r="N31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.44957912457912458</v>
       </c>
       <c r="O31" s="45">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="P31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="Q31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="R31" s="29">
@@ -7029,87 +7029,87 @@
         <v>0.5031986531986532</v>
       </c>
       <c r="S31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="T31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="U31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="V31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="W31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="X31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="Y31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="Z31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AA31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AB31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AC31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AD31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AE31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AF31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AG31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AH31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AI31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AJ31" s="29">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AK31" s="29">
-        <f t="shared" ref="AK31" si="45">IF(AK30&gt;$C$27,1,AK30/$C$27)</f>
+        <f t="shared" ref="AK31" si="46">IF(AK30&gt;$C$27,1,AK30/$C$27)</f>
         <v>0.5031986531986532</v>
       </c>
     </row>
     <row r="32" spans="2:37" ht="14.25" thickTop="1">
-      <c r="B32" s="63"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="54"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="47" t="s">
         <v>24</v>
       </c>
@@ -7146,10 +7146,10 @@
       <c r="AK32" s="22"/>
     </row>
     <row r="33" spans="2:37">
-      <c r="B33" s="63"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="54"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="48" t="s">
         <v>25</v>
       </c>
@@ -7186,10 +7186,10 @@
       <c r="AK33" s="1"/>
     </row>
     <row r="34" spans="2:37">
-      <c r="B34" s="64"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="55"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="48" t="s">
         <v>26</v>
       </c>
@@ -7227,6 +7227,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="C7:C11"/>
@@ -7239,18 +7251,6 @@
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9072,7 +9072,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2:D6"/>
+      <selection pane="topRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9198,18 +9198,18 @@
       </c>
     </row>
     <row r="2" spans="2:37">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="50">
         <f>SUM(G2:AK2)</f>
         <v>376320</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="59">
         <f>SUM(G4:AK4)</f>
         <v>163968</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="62">
         <f>IF(D2/C2&gt;1,1,D2/C2)</f>
         <v>0.43571428571428572</v>
       </c>
@@ -9283,10 +9283,10 @@
       <c r="AK2" s="37"/>
     </row>
     <row r="3" spans="2:37">
-      <c r="B3" s="60"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="25" t="s">
         <v>1</v>
       </c>
@@ -9416,10 +9416,10 @@
       </c>
     </row>
     <row r="4" spans="2:37">
-      <c r="B4" s="60"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="25" t="s">
         <v>2</v>
       </c>
@@ -9478,10 +9478,10 @@
       <c r="AK4" s="38"/>
     </row>
     <row r="5" spans="2:37">
-      <c r="B5" s="60"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="25" t="s">
         <v>3</v>
       </c>
@@ -9611,152 +9611,152 @@
       </c>
     </row>
     <row r="6" spans="2:37">
-      <c r="B6" s="61"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="28">
-        <f>IF(G5&gt;$C$2,1,G5/$C$2)</f>
+        <f t="shared" ref="G6:AJ6" si="4">IF(G5&gt;$C$2,1,G5/$C$2)</f>
         <v>0</v>
       </c>
       <c r="H6" s="28">
-        <f>IF(H5&gt;$C$2,1,H5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I6" s="28">
-        <f>IF(I5&gt;$C$2,1,I5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J6" s="28">
-        <f>IF(J5&gt;$C$2,1,J5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="28">
-        <f>IF(K5&gt;$C$2,1,K5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.10892857142857143</v>
       </c>
       <c r="L6" s="28">
-        <f>IF(L5&gt;$C$2,1,L5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.10892857142857143</v>
       </c>
       <c r="M6" s="28">
-        <f>IF(M5&gt;$C$2,1,M5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.21785714285714286</v>
       </c>
       <c r="N6" s="28">
-        <f>IF(N5&gt;$C$2,1,N5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.32678571428571429</v>
       </c>
       <c r="O6" s="44">
-        <f>IF(O5&gt;$C$2,1,O5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="P6" s="28">
-        <f>IF(P5&gt;$C$2,1,P5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="Q6" s="28">
-        <f>IF(Q5&gt;$C$2,1,Q5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="R6" s="28">
-        <f>IF(R5&gt;$C$2,1,R5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="S6" s="28">
-        <f>IF(S5&gt;$C$2,1,S5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="T6" s="28">
-        <f>IF(T5&gt;$C$2,1,T5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="U6" s="28">
-        <f>IF(U5&gt;$C$2,1,U5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="V6" s="28">
-        <f>IF(V5&gt;$C$2,1,V5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="W6" s="28">
-        <f>IF(W5&gt;$C$2,1,W5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="X6" s="28">
-        <f>IF(X5&gt;$C$2,1,X5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="Y6" s="28">
-        <f>IF(Y5&gt;$C$2,1,Y5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="Z6" s="28">
-        <f>IF(Z5&gt;$C$2,1,Z5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AA6" s="28">
-        <f>IF(AA5&gt;$C$2,1,AA5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AB6" s="28">
-        <f>IF(AB5&gt;$C$2,1,AB5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AC6" s="28">
-        <f>IF(AC5&gt;$C$2,1,AC5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AD6" s="28">
-        <f>IF(AD5&gt;$C$2,1,AD5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AE6" s="28">
-        <f>IF(AE5&gt;$C$2,1,AE5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AF6" s="28">
-        <f>IF(AF5&gt;$C$2,1,AF5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AG6" s="28">
-        <f>IF(AG5&gt;$C$2,1,AG5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AH6" s="28">
-        <f>IF(AH5&gt;$C$2,1,AH5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AI6" s="28">
-        <f>IF(AI5&gt;$C$2,1,AI5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AJ6" s="28">
-        <f>IF(AJ5&gt;$C$2,1,AJ5/$C$2)</f>
+        <f t="shared" si="4"/>
         <v>0.43571428571428572</v>
       </c>
       <c r="AK6" s="28">
-        <f t="shared" ref="AK6" si="4">IF(AK5&gt;$C$2,1,AK5/$C$2)</f>
+        <f t="shared" ref="AK6" si="5">IF(AK5&gt;$C$2,1,AK5/$C$2)</f>
         <v>0.43571428571428572</v>
       </c>
     </row>
     <row r="7" spans="2:37">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="50">
         <f>SUM(G7:AJ7)</f>
         <v>172800</v>
       </c>
-      <c r="D7" s="50">
-        <f t="shared" ref="D7" si="5">SUM(G9:AK9)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="53">
-        <f t="shared" ref="E7" si="6">IF(D7/C7&gt;1,1,D7/C7)</f>
+      <c r="D7" s="59">
+        <f t="shared" ref="D7" si="6">SUM(G9:AK9)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="62">
+        <f t="shared" ref="E7" si="7">IF(D7/C7&gt;1,1,D7/C7)</f>
         <v>0</v>
       </c>
       <c r="F7" s="24" t="s">
@@ -9827,10 +9827,10 @@
       <c r="AK7" s="37"/>
     </row>
     <row r="8" spans="2:37">
-      <c r="B8" s="60"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="25" t="s">
         <v>1</v>
       </c>
@@ -9855,15 +9855,15 @@
         <v>0</v>
       </c>
       <c r="L8" s="38">
-        <f t="shared" ref="L8:AK8" si="7">K8+L7</f>
+        <f t="shared" ref="L8:AK8" si="8">K8+L7</f>
         <v>0</v>
       </c>
       <c r="M8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O8" s="43">
@@ -9871,99 +9871,99 @@
         <v>0</v>
       </c>
       <c r="P8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28800</v>
       </c>
       <c r="R8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28800</v>
       </c>
       <c r="S8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28800</v>
       </c>
       <c r="T8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57600</v>
       </c>
       <c r="U8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>86400</v>
       </c>
       <c r="V8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="W8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="X8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="Y8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="Z8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AA8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AB8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AC8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AD8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AE8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AF8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AG8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115200</v>
       </c>
       <c r="AH8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>144000</v>
       </c>
       <c r="AI8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>172800</v>
       </c>
       <c r="AJ8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>172800</v>
       </c>
       <c r="AK8" s="38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>172800</v>
       </c>
     </row>
     <row r="9" spans="2:37">
-      <c r="B9" s="60"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="25" t="s">
         <v>2</v>
       </c>
@@ -10020,10 +10020,10 @@
       <c r="AK9" s="38"/>
     </row>
     <row r="10" spans="2:37">
-      <c r="B10" s="60"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="25" t="s">
         <v>3</v>
       </c>
@@ -10036,19 +10036,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="38">
-        <f t="shared" ref="I10:L10" si="8">H10+I9</f>
+        <f t="shared" ref="I10:L10" si="9">H10+I9</f>
         <v>0</v>
       </c>
       <c r="J10" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K10" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L10" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M10" s="38">
@@ -10056,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="38">
-        <f t="shared" ref="N10" si="9">M10+N9</f>
+        <f t="shared" ref="N10" si="10">M10+N9</f>
         <v>0</v>
       </c>
       <c r="O10" s="43">
@@ -10064,99 +10064,99 @@
         <v>0</v>
       </c>
       <c r="P10" s="38">
-        <f t="shared" ref="P10:AK10" si="10">O10+P9</f>
+        <f t="shared" ref="P10:AK10" si="11">O10+P9</f>
         <v>0</v>
       </c>
       <c r="Q10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK10" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:37">
-      <c r="B11" s="61"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="26" t="s">
         <v>4</v>
       </c>
@@ -10165,140 +10165,140 @@
         <v>0</v>
       </c>
       <c r="H11" s="28">
-        <f t="shared" ref="H11:AK11" si="11">IF(H10&gt;$C$7,1,H10/$C$7)</f>
+        <f t="shared" ref="H11:AK11" si="12">IF(H10&gt;$C$7,1,H10/$C$7)</f>
         <v>0</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O11" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:37">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="50">
         <f>SUM(G12:AJ12)</f>
         <v>241920</v>
       </c>
-      <c r="D12" s="50">
-        <f t="shared" ref="D12" si="12">SUM(G14:AK14)</f>
-        <v>241920</v>
-      </c>
-      <c r="E12" s="53">
-        <f t="shared" ref="E12" si="13">IF(D12/C12&gt;1,1,D12/C12)</f>
+      <c r="D12" s="59">
+        <f t="shared" ref="D12" si="13">SUM(G14:AK14)</f>
+        <v>241920</v>
+      </c>
+      <c r="E12" s="62">
+        <f t="shared" ref="E12" si="14">IF(D12/C12&gt;1,1,D12/C12)</f>
         <v>1</v>
       </c>
       <c r="F12" s="24" t="s">
@@ -10399,10 +10399,10 @@
       </c>
     </row>
     <row r="13" spans="2:37">
-      <c r="B13" s="60"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="25" t="s">
         <v>1</v>
       </c>
@@ -10415,27 +10415,27 @@
         <v>120960</v>
       </c>
       <c r="I13" s="38">
-        <f t="shared" ref="I13:N13" si="14">H13+I12</f>
+        <f t="shared" ref="I13:N13" si="15">H13+I12</f>
         <v>181440</v>
       </c>
       <c r="J13" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>181440</v>
       </c>
       <c r="K13" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>181440</v>
       </c>
       <c r="L13" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>241920</v>
       </c>
       <c r="M13" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>241920</v>
       </c>
       <c r="N13" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>241920</v>
       </c>
       <c r="O13" s="43">
@@ -10443,99 +10443,99 @@
         <v>241920</v>
       </c>
       <c r="P13" s="38">
-        <f t="shared" ref="P13:AK13" si="15">O13+P12</f>
+        <f t="shared" ref="P13:AK13" si="16">O13+P12</f>
         <v>241920</v>
       </c>
       <c r="Q13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="R13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="S13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="T13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="U13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="V13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="W13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="X13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="Y13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="Z13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AA13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AB13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AC13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AD13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AE13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AF13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AG13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AH13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AI13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AJ13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
       <c r="AK13" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>241920</v>
       </c>
     </row>
     <row r="14" spans="2:37">
-      <c r="B14" s="60"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="25" t="s">
         <v>2</v>
       </c>
@@ -10584,10 +10584,10 @@
       <c r="AK14" s="38"/>
     </row>
     <row r="15" spans="2:37">
-      <c r="B15" s="60"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="25" t="s">
         <v>3</v>
       </c>
@@ -10600,27 +10600,27 @@
         <v>120960</v>
       </c>
       <c r="I15" s="38">
-        <f t="shared" ref="I15:N15" si="16">H15+I14</f>
+        <f t="shared" ref="I15:N15" si="17">H15+I14</f>
         <v>181440</v>
       </c>
       <c r="J15" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>181440</v>
       </c>
       <c r="K15" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>181440</v>
       </c>
       <c r="L15" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="M15" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="N15" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>241920</v>
       </c>
       <c r="O15" s="43">
@@ -10628,99 +10628,99 @@
         <v>241920</v>
       </c>
       <c r="P15" s="38">
-        <f t="shared" ref="P15:AK15" si="17">O15+P14</f>
+        <f t="shared" ref="P15:AK15" si="18">O15+P14</f>
         <v>241920</v>
       </c>
       <c r="Q15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="R15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="S15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="T15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="U15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="V15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="W15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="X15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="Y15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="Z15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AA15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AB15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AC15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AD15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AE15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AF15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AG15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AH15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AI15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AJ15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
       <c r="AK15" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>241920</v>
       </c>
     </row>
     <row r="16" spans="2:37">
-      <c r="B16" s="61"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
       </c>
@@ -10729,11 +10729,11 @@
         <v>0.25</v>
       </c>
       <c r="H16" s="28">
-        <f t="shared" ref="H16:AK16" si="18">IF(H15&gt;$C$12,1,H15/$C$12)</f>
+        <f t="shared" ref="H16:AK16" si="19">IF(H15&gt;$C$12,1,H15/$C$12)</f>
         <v>0.5</v>
       </c>
       <c r="I16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.75</v>
       </c>
       <c r="J16" s="28">
@@ -10741,128 +10741,128 @@
         <v>0.75</v>
       </c>
       <c r="K16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.75</v>
       </c>
       <c r="L16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="N16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="O16" s="44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="P16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="T16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="U16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="W16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="X16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Y16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Z16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AA16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AB16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AC16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AD16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AE16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AF16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AG16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AH16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AI16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AJ16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="AK16" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:37">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="50">
         <f>SUM(G17:AJ17)</f>
         <v>241920</v>
       </c>
-      <c r="D17" s="50">
-        <f t="shared" ref="D17" si="19">SUM(G19:AK19)</f>
+      <c r="D17" s="59">
+        <f t="shared" ref="D17" si="20">SUM(G19:AK19)</f>
         <v>60480</v>
       </c>
-      <c r="E17" s="53">
-        <f t="shared" ref="E17" si="20">IF(D17/C17&gt;1,1,D17/C17)</f>
+      <c r="E17" s="62">
+        <f t="shared" ref="E17" si="21">IF(D17/C17&gt;1,1,D17/C17)</f>
         <v>0.25</v>
       </c>
       <c r="F17" s="24" t="s">
@@ -10933,10 +10933,10 @@
       <c r="AK17" s="37"/>
     </row>
     <row r="18" spans="2:37">
-      <c r="B18" s="60"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="25" t="s">
         <v>1</v>
       </c>
@@ -10949,27 +10949,27 @@
         <v>0</v>
       </c>
       <c r="I18" s="38">
-        <f t="shared" ref="I18:AK18" si="21">H18+I17</f>
+        <f t="shared" ref="I18:AK18" si="22">H18+I17</f>
         <v>0</v>
       </c>
       <c r="J18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>20160</v>
       </c>
       <c r="N18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>40320</v>
       </c>
       <c r="O18" s="43">
@@ -10977,99 +10977,99 @@
         <v>60480</v>
       </c>
       <c r="P18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>60480</v>
       </c>
       <c r="Q18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>60480</v>
       </c>
       <c r="R18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>120960</v>
       </c>
       <c r="S18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>141120</v>
       </c>
       <c r="T18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>161280</v>
       </c>
       <c r="U18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>181440</v>
       </c>
       <c r="V18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>181440</v>
       </c>
       <c r="W18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>181440</v>
       </c>
       <c r="X18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>181440</v>
       </c>
       <c r="Y18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>181440</v>
       </c>
       <c r="Z18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>181440</v>
       </c>
       <c r="AA18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>181440</v>
       </c>
       <c r="AB18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>241920</v>
       </c>
       <c r="AC18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>241920</v>
       </c>
       <c r="AD18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>241920</v>
       </c>
       <c r="AE18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>241920</v>
       </c>
       <c r="AF18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>241920</v>
       </c>
       <c r="AG18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>241920</v>
       </c>
       <c r="AH18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>241920</v>
       </c>
       <c r="AI18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>241920</v>
       </c>
       <c r="AJ18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>241920</v>
       </c>
       <c r="AK18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>241920</v>
       </c>
     </row>
     <row r="19" spans="2:37">
-      <c r="B19" s="60"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="25" t="s">
         <v>2</v>
       </c>
@@ -11128,10 +11128,10 @@
       <c r="AK19" s="38"/>
     </row>
     <row r="20" spans="2:37">
-      <c r="B20" s="60"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="25" t="s">
         <v>3</v>
       </c>
@@ -11144,27 +11144,27 @@
         <v>0</v>
       </c>
       <c r="I20" s="38">
-        <f t="shared" ref="I20:AK20" si="22">H20+I19</f>
+        <f t="shared" ref="I20:AK20" si="23">H20+I19</f>
         <v>0</v>
       </c>
       <c r="J20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20160</v>
       </c>
       <c r="N20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>40320</v>
       </c>
       <c r="O20" s="43">
@@ -11172,99 +11172,99 @@
         <v>60480</v>
       </c>
       <c r="P20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="Q20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="R20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="S20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="T20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="U20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="V20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="W20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="X20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="Y20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="Z20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AA20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AB20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AC20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AD20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AE20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AF20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AG20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AH20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AI20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AJ20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
       <c r="AK20" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>60480</v>
       </c>
     </row>
     <row r="21" spans="2:37">
-      <c r="B21" s="61"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
       </c>
@@ -11273,140 +11273,140 @@
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" ref="H21:AK21" si="23">IF(H20&gt;$C$17,1,H20/$C$17)</f>
+        <f t="shared" ref="H21:AK21" si="24">IF(H20&gt;$C$17,1,H20/$C$17)</f>
         <v>0</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="O21" s="44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="Q21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="R21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="S21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="T21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="U21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="V21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="W21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="X21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="Y21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="Z21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AA21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AB21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AC21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AD21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AE21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AF21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AG21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AH21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AI21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AJ21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="AK21" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="2:37">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="50">
         <f>SUM(G22:AJ22)</f>
         <v>107520</v>
       </c>
-      <c r="D22" s="50">
-        <f t="shared" ref="D22" si="24">SUM(G24:AK24)</f>
+      <c r="D22" s="59">
+        <f t="shared" ref="D22" si="25">SUM(G24:AK24)</f>
         <v>107520</v>
       </c>
-      <c r="E22" s="53">
-        <f t="shared" ref="E22" si="25">IF(D22/C22&gt;1,1,D22/C22)</f>
+      <c r="E22" s="62">
+        <f t="shared" ref="E22" si="26">IF(D22/C22&gt;1,1,D22/C22)</f>
         <v>1</v>
       </c>
       <c r="F22" s="24" t="s">
@@ -11507,10 +11507,10 @@
       </c>
     </row>
     <row r="23" spans="2:37">
-      <c r="B23" s="60"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="25" t="s">
         <v>1</v>
       </c>
@@ -11523,27 +11523,27 @@
         <v>53760</v>
       </c>
       <c r="I23" s="38">
-        <f t="shared" ref="I23:N23" si="26">H23+I22</f>
+        <f t="shared" ref="I23:N23" si="27">H23+I22</f>
         <v>80640</v>
       </c>
       <c r="J23" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>80640</v>
       </c>
       <c r="K23" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>107520</v>
       </c>
       <c r="L23" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>107520</v>
       </c>
       <c r="M23" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>107520</v>
       </c>
       <c r="N23" s="38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>107520</v>
       </c>
       <c r="O23" s="43">
@@ -11551,99 +11551,99 @@
         <v>107520</v>
       </c>
       <c r="P23" s="38">
-        <f t="shared" ref="P23:AK23" si="27">O23+P22</f>
+        <f t="shared" ref="P23:AK23" si="28">O23+P22</f>
         <v>107520</v>
       </c>
       <c r="Q23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="R23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="S23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="T23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="U23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="V23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="W23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="X23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="Y23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="Z23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AA23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AB23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AC23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AD23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AE23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AF23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AG23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AH23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AI23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AJ23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
       <c r="AK23" s="38">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>107520</v>
       </c>
     </row>
     <row r="24" spans="2:37">
-      <c r="B24" s="60"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="25" t="s">
         <v>2</v>
       </c>
@@ -11742,10 +11742,10 @@
       </c>
     </row>
     <row r="25" spans="2:37">
-      <c r="B25" s="60"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="25" t="s">
         <v>3</v>
       </c>
@@ -11758,27 +11758,27 @@
         <v>53760</v>
       </c>
       <c r="I25" s="38">
-        <f t="shared" ref="I25:N25" si="28">H25+I24</f>
+        <f t="shared" ref="I25:N25" si="29">H25+I24</f>
         <v>80640</v>
       </c>
       <c r="J25" s="38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>80640</v>
       </c>
       <c r="K25" s="38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>107520</v>
       </c>
       <c r="L25" s="38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>107520</v>
       </c>
       <c r="M25" s="38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>107520</v>
       </c>
       <c r="N25" s="38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>107520</v>
       </c>
       <c r="O25" s="43">
@@ -11786,99 +11786,99 @@
         <v>107520</v>
       </c>
       <c r="P25" s="38">
-        <f t="shared" ref="P25:AK25" si="29">O25+P24</f>
+        <f t="shared" ref="P25:AK25" si="30">O25+P24</f>
         <v>107520</v>
       </c>
       <c r="Q25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="R25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="S25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="T25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="U25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="V25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="W25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="X25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="Y25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="Z25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AA25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AB25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AC25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AD25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AE25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AF25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AG25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AH25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AI25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AJ25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
       <c r="AK25" s="38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107520</v>
       </c>
     </row>
     <row r="26" spans="2:37">
-      <c r="B26" s="61"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="26" t="s">
         <v>4</v>
       </c>
@@ -11887,140 +11887,140 @@
         <v>0.25</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" ref="H26:AK26" si="30">IF(H25&gt;$C$22,1,H25/$C$22)</f>
+        <f t="shared" ref="H26:AK26" si="31">IF(H25&gt;$C$22,1,H25/$C$22)</f>
         <v>0.5</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.75</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.75</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="M26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="N26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O26" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="R26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="S26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="T26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="U26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="V26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="X26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Y26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Z26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AC26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AD26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AE26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AF26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AG26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AH26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AI26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AJ26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AK26" s="28">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:37">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="59">
         <f>SUM(C2:C26)</f>
         <v>1140480</v>
       </c>
-      <c r="D27" s="50">
-        <f t="shared" ref="D27" si="31">SUM(G29:AK29)</f>
+      <c r="D27" s="59">
+        <f t="shared" ref="D27" si="32">SUM(G29:AK29)</f>
         <v>573888</v>
       </c>
-      <c r="E27" s="53">
-        <f t="shared" ref="E27" si="32">IF(D27/C27&gt;1,1,D27/C27)</f>
+      <c r="E27" s="62">
+        <f t="shared" ref="E27" si="33">IF(D27/C27&gt;1,1,D27/C27)</f>
         <v>0.5031986531986532</v>
       </c>
       <c r="F27" s="24" t="s">
@@ -12031,264 +12031,264 @@
         <v>87360</v>
       </c>
       <c r="H27" s="37">
-        <f t="shared" ref="H27:AK30" si="33">SUM(H2+H7+H12+H17+H22)</f>
+        <f t="shared" ref="H27:AK30" si="34">SUM(H2+H7+H12+H17+H22)</f>
         <v>87360</v>
       </c>
       <c r="I27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>87360</v>
       </c>
       <c r="J27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>67200</v>
       </c>
       <c r="L27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>60480</v>
       </c>
       <c r="M27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>60480</v>
       </c>
       <c r="N27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>60480</v>
       </c>
       <c r="O27" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>60480</v>
       </c>
       <c r="P27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>28800</v>
       </c>
       <c r="R27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>60480</v>
       </c>
       <c r="S27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>20160</v>
       </c>
       <c r="T27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>48960</v>
       </c>
       <c r="U27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>48960</v>
       </c>
       <c r="V27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>28800</v>
       </c>
       <c r="W27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13440</v>
       </c>
       <c r="X27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>40320</v>
       </c>
       <c r="Y27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AA27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>40320</v>
       </c>
       <c r="AB27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>60480</v>
       </c>
       <c r="AC27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>40320</v>
       </c>
       <c r="AD27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>40320</v>
       </c>
       <c r="AE27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>40320</v>
       </c>
       <c r="AF27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AG27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AH27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>28800</v>
       </c>
       <c r="AI27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>28800</v>
       </c>
       <c r="AJ27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AK27" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:37">
-      <c r="B28" s="63"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="54"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="25" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="38">
-        <f t="shared" ref="G28:V28" si="34">SUM(G3+G8+G13+G18+G23)</f>
+        <f t="shared" ref="G28:V28" si="35">SUM(G3+G8+G13+G18+G23)</f>
         <v>87360</v>
       </c>
       <c r="H28" s="38">
+        <f t="shared" si="35"/>
+        <v>174720</v>
+      </c>
+      <c r="I28" s="38">
+        <f t="shared" si="35"/>
+        <v>262080</v>
+      </c>
+      <c r="J28" s="38">
+        <f t="shared" si="35"/>
+        <v>262080</v>
+      </c>
+      <c r="K28" s="38">
+        <f t="shared" si="35"/>
+        <v>329280</v>
+      </c>
+      <c r="L28" s="38">
+        <f t="shared" si="35"/>
+        <v>389760</v>
+      </c>
+      <c r="M28" s="38">
+        <f t="shared" si="35"/>
+        <v>450240</v>
+      </c>
+      <c r="N28" s="38">
+        <f t="shared" si="35"/>
+        <v>510720</v>
+      </c>
+      <c r="O28" s="43">
+        <f t="shared" si="35"/>
+        <v>571200</v>
+      </c>
+      <c r="P28" s="38">
+        <f t="shared" si="35"/>
+        <v>571200</v>
+      </c>
+      <c r="Q28" s="38">
+        <f t="shared" si="35"/>
+        <v>600000</v>
+      </c>
+      <c r="R28" s="38">
+        <f t="shared" si="35"/>
+        <v>660480</v>
+      </c>
+      <c r="S28" s="38">
+        <f t="shared" si="35"/>
+        <v>680640</v>
+      </c>
+      <c r="T28" s="38">
+        <f t="shared" si="35"/>
+        <v>729600</v>
+      </c>
+      <c r="U28" s="38">
+        <f t="shared" si="35"/>
+        <v>778560</v>
+      </c>
+      <c r="V28" s="38">
+        <f t="shared" si="35"/>
+        <v>807360</v>
+      </c>
+      <c r="W28" s="38">
         <f t="shared" si="34"/>
-        <v>174720</v>
-      </c>
-      <c r="I28" s="38">
+        <v>820800</v>
+      </c>
+      <c r="X28" s="38">
         <f t="shared" si="34"/>
-        <v>262080</v>
-      </c>
-      <c r="J28" s="38">
+        <v>861120</v>
+      </c>
+      <c r="Y28" s="38">
         <f t="shared" si="34"/>
-        <v>262080</v>
-      </c>
-      <c r="K28" s="38">
+        <v>861120</v>
+      </c>
+      <c r="Z28" s="38">
         <f t="shared" si="34"/>
-        <v>329280</v>
-      </c>
-      <c r="L28" s="38">
+        <v>861120</v>
+      </c>
+      <c r="AA28" s="38">
         <f t="shared" si="34"/>
-        <v>389760</v>
-      </c>
-      <c r="M28" s="38">
+        <v>901440</v>
+      </c>
+      <c r="AB28" s="38">
         <f t="shared" si="34"/>
-        <v>450240</v>
-      </c>
-      <c r="N28" s="38">
+        <v>961920</v>
+      </c>
+      <c r="AC28" s="38">
         <f t="shared" si="34"/>
-        <v>510720</v>
-      </c>
-      <c r="O28" s="43">
+        <v>1002240</v>
+      </c>
+      <c r="AD28" s="38">
         <f t="shared" si="34"/>
-        <v>571200</v>
-      </c>
-      <c r="P28" s="38">
+        <v>1042560</v>
+      </c>
+      <c r="AE28" s="38">
         <f t="shared" si="34"/>
-        <v>571200</v>
-      </c>
-      <c r="Q28" s="38">
+        <v>1082880</v>
+      </c>
+      <c r="AF28" s="38">
         <f t="shared" si="34"/>
-        <v>600000</v>
-      </c>
-      <c r="R28" s="38">
+        <v>1082880</v>
+      </c>
+      <c r="AG28" s="38">
         <f t="shared" si="34"/>
-        <v>660480</v>
-      </c>
-      <c r="S28" s="38">
+        <v>1082880</v>
+      </c>
+      <c r="AH28" s="38">
         <f t="shared" si="34"/>
-        <v>680640</v>
-      </c>
-      <c r="T28" s="38">
+        <v>1111680</v>
+      </c>
+      <c r="AI28" s="38">
         <f t="shared" si="34"/>
-        <v>729600</v>
-      </c>
-      <c r="U28" s="38">
+        <v>1140480</v>
+      </c>
+      <c r="AJ28" s="38">
         <f t="shared" si="34"/>
-        <v>778560</v>
-      </c>
-      <c r="V28" s="38">
+        <v>1140480</v>
+      </c>
+      <c r="AK28" s="38">
         <f t="shared" si="34"/>
-        <v>807360</v>
-      </c>
-      <c r="W28" s="38">
-        <f t="shared" si="33"/>
-        <v>820800</v>
-      </c>
-      <c r="X28" s="38">
-        <f t="shared" si="33"/>
-        <v>861120</v>
-      </c>
-      <c r="Y28" s="38">
-        <f t="shared" si="33"/>
-        <v>861120</v>
-      </c>
-      <c r="Z28" s="38">
-        <f t="shared" si="33"/>
-        <v>861120</v>
-      </c>
-      <c r="AA28" s="38">
-        <f t="shared" si="33"/>
-        <v>901440</v>
-      </c>
-      <c r="AB28" s="38">
-        <f t="shared" si="33"/>
-        <v>961920</v>
-      </c>
-      <c r="AC28" s="38">
-        <f t="shared" si="33"/>
-        <v>1002240</v>
-      </c>
-      <c r="AD28" s="38">
-        <f t="shared" si="33"/>
-        <v>1042560</v>
-      </c>
-      <c r="AE28" s="38">
-        <f t="shared" si="33"/>
-        <v>1082880</v>
-      </c>
-      <c r="AF28" s="38">
-        <f t="shared" si="33"/>
-        <v>1082880</v>
-      </c>
-      <c r="AG28" s="38">
-        <f t="shared" si="33"/>
-        <v>1082880</v>
-      </c>
-      <c r="AH28" s="38">
-        <f t="shared" si="33"/>
-        <v>1111680</v>
-      </c>
-      <c r="AI28" s="38">
-        <f t="shared" si="33"/>
-        <v>1140480</v>
-      </c>
-      <c r="AJ28" s="38">
-        <f t="shared" si="33"/>
-        <v>1140480</v>
-      </c>
-      <c r="AK28" s="38">
-        <f t="shared" si="33"/>
         <v>1140480</v>
       </c>
     </row>
     <row r="29" spans="2:37">
-      <c r="B29" s="63"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="54"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="25" t="s">
         <v>2</v>
       </c>
@@ -12297,131 +12297,131 @@
         <v>87360</v>
       </c>
       <c r="H29" s="38">
-        <f t="shared" ref="H29:AK29" si="35">H4+H9+H14+H19+H24</f>
+        <f t="shared" ref="H29:AK29" si="36">H4+H9+H14+H19+H24</f>
         <v>87360</v>
       </c>
       <c r="I29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>87360</v>
       </c>
       <c r="J29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>67872</v>
       </c>
       <c r="L29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>60480</v>
       </c>
       <c r="M29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>61152</v>
       </c>
       <c r="N29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>61152</v>
       </c>
       <c r="O29" s="43">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>61152</v>
       </c>
       <c r="P29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AA29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AC29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AD29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AE29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AF29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AG29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AH29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AI29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AJ29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AK29" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:37">
-      <c r="B30" s="63"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="54"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="25" t="s">
         <v>3</v>
       </c>
@@ -12430,15 +12430,15 @@
         <v>87360</v>
       </c>
       <c r="H30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>174720</v>
       </c>
       <c r="I30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>262080</v>
       </c>
       <c r="J30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>262080</v>
       </c>
       <c r="K30" s="38">
@@ -12446,31 +12446,31 @@
         <v>329952</v>
       </c>
       <c r="L30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>390432</v>
       </c>
       <c r="M30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>451584</v>
       </c>
       <c r="N30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>512736</v>
       </c>
       <c r="O30" s="43">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="P30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="Q30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="R30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="S30" s="38">
@@ -12478,83 +12478,83 @@
         <v>573888</v>
       </c>
       <c r="T30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="U30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="V30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="W30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="X30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="Y30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="Z30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AA30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AB30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AC30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AD30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AE30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AF30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AG30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AH30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AI30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AJ30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
       <c r="AK30" s="38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>573888</v>
       </c>
     </row>
     <row r="31" spans="2:37" ht="14.25" thickBot="1">
-      <c r="B31" s="63"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="54"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="27" t="s">
         <v>4</v>
       </c>
@@ -12567,39 +12567,39 @@
         <v>0.1531986531986532</v>
       </c>
       <c r="I31" s="29">
-        <f t="shared" ref="H31:AK31" si="36">IF(I30&gt;$C$27,1,I30/$C$27)</f>
+        <f t="shared" ref="I31:AK31" si="37">IF(I30&gt;$C$27,1,I30/$C$27)</f>
         <v>0.22979797979797981</v>
       </c>
       <c r="J31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.22979797979797981</v>
       </c>
       <c r="K31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.28930976430976429</v>
       </c>
       <c r="L31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.34234006734006733</v>
       </c>
       <c r="M31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.39595959595959596</v>
       </c>
       <c r="N31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.44957912457912458</v>
       </c>
       <c r="O31" s="45">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="P31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="Q31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="R31" s="29">
@@ -12607,87 +12607,87 @@
         <v>0.5031986531986532</v>
       </c>
       <c r="S31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="T31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="U31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="V31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="W31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="X31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="Y31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="Z31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AA31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AB31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AC31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AD31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AE31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AF31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AG31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AH31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AI31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AJ31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
       <c r="AK31" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.5031986531986532</v>
       </c>
     </row>
     <row r="32" spans="2:37" ht="14.25" thickTop="1">
-      <c r="B32" s="63"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="54"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="47" t="s">
         <v>24</v>
       </c>
@@ -12724,10 +12724,10 @@
       <c r="AK32" s="22"/>
     </row>
     <row r="33" spans="2:37">
-      <c r="B33" s="63"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="54"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="48" t="s">
         <v>25</v>
       </c>
@@ -12764,10 +12764,10 @@
       <c r="AK33" s="1"/>
     </row>
     <row r="34" spans="2:37">
-      <c r="B34" s="64"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="55"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="48" t="s">
         <v>26</v>
       </c>
@@ -12805,6 +12805,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="D22:D26"/>
@@ -12813,22 +12829,6 @@
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="D27:D34"/>
     <mergeCell ref="E27:E34"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
